--- a/CumulativeTestsByTypeByCounty/2021-03-23.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-03-23.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>50195</v>
+        <v>50222</v>
       </c>
       <c r="C2" s="4">
         <v>1451</v>
       </c>
       <c r="D2" s="4">
-        <v>6808</v>
+        <v>6851</v>
       </c>
       <c r="E2" s="4">
-        <v>58454</v>
+        <v>58524</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4064</v>
+        <v>4071</v>
       </c>
       <c r="C3" s="4">
         <v>213</v>
       </c>
       <c r="D3" s="4">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="E3" s="4">
-        <v>6521</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>53273</v>
+        <v>53358</v>
       </c>
       <c r="C4" s="4">
         <v>1542</v>
       </c>
       <c r="D4" s="4">
-        <v>22536</v>
+        <v>22597</v>
       </c>
       <c r="E4" s="4">
-        <v>77351</v>
+        <v>77497</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>7159</v>
+        <v>7173</v>
       </c>
       <c r="C5" s="4">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="D5" s="4">
-        <v>5184</v>
+        <v>5209</v>
       </c>
       <c r="E5" s="4">
-        <v>14504</v>
+        <v>14546</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="C6" s="4">
         <v>479</v>
       </c>
       <c r="D6" s="4">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E6" s="4">
-        <v>3793</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>49061</v>
+        <v>49148</v>
       </c>
       <c r="C8" s="4">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="D8" s="4">
-        <v>4331</v>
+        <v>4353</v>
       </c>
       <c r="E8" s="4">
-        <v>54474</v>
+        <v>54589</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>16872</v>
+        <v>16889</v>
       </c>
       <c r="C9" s="4">
         <v>464</v>
       </c>
       <c r="D9" s="4">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="E9" s="4">
-        <v>18564</v>
+        <v>18585</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1213,10 +1213,10 @@
         <v>59</v>
       </c>
       <c r="D10" s="4">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E10" s="4">
-        <v>2293</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7483</v>
+        <v>7498</v>
       </c>
       <c r="C11" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D11" s="4">
-        <v>3380</v>
+        <v>3391</v>
       </c>
       <c r="E11" s="4">
-        <v>11360</v>
+        <v>11387</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>47941</v>
+        <v>48030</v>
       </c>
       <c r="C12" s="4">
         <v>1099</v>
       </c>
       <c r="D12" s="4">
-        <v>15358</v>
+        <v>15382</v>
       </c>
       <c r="E12" s="4">
-        <v>64398</v>
+        <v>64511</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>30464</v>
+        <v>30478</v>
       </c>
       <c r="C14" s="4">
-        <v>5199</v>
+        <v>5208</v>
       </c>
       <c r="D14" s="4">
-        <v>6599</v>
+        <v>6693</v>
       </c>
       <c r="E14" s="4">
-        <v>42262</v>
+        <v>42379</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>228029</v>
+        <v>228486</v>
       </c>
       <c r="C15" s="4">
-        <v>13259</v>
+        <v>13266</v>
       </c>
       <c r="D15" s="4">
-        <v>14840</v>
+        <v>14904</v>
       </c>
       <c r="E15" s="4">
-        <v>256128</v>
+        <v>256656</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1722006</v>
+        <v>1726523</v>
       </c>
       <c r="C16" s="4">
-        <v>49760</v>
+        <v>50078</v>
       </c>
       <c r="D16" s="4">
-        <v>180904</v>
+        <v>181847</v>
       </c>
       <c r="E16" s="4">
-        <v>1952670</v>
+        <v>1958448</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5379</v>
+        <v>5385</v>
       </c>
       <c r="C17" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D17" s="4">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="E17" s="4">
-        <v>6288</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8468</v>
+        <v>8490</v>
       </c>
       <c r="C19" s="4">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D19" s="4">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="E19" s="4">
-        <v>13308</v>
+        <v>13333</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>56964</v>
+        <v>57029</v>
       </c>
       <c r="C20" s="4">
-        <v>9803</v>
+        <v>9805</v>
       </c>
       <c r="D20" s="4">
-        <v>11356</v>
+        <v>11387</v>
       </c>
       <c r="E20" s="4">
-        <v>78123</v>
+        <v>78221</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>298818</v>
+        <v>299417</v>
       </c>
       <c r="C21" s="4">
-        <v>9282</v>
+        <v>9307</v>
       </c>
       <c r="D21" s="4">
-        <v>32070</v>
+        <v>32266</v>
       </c>
       <c r="E21" s="4">
-        <v>340170</v>
+        <v>340990</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>228571</v>
+        <v>228775</v>
       </c>
       <c r="C22" s="4">
-        <v>5682</v>
+        <v>5684</v>
       </c>
       <c r="D22" s="4">
-        <v>16344</v>
+        <v>16410</v>
       </c>
       <c r="E22" s="4">
-        <v>250597</v>
+        <v>250869</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8497</v>
+        <v>8504</v>
       </c>
       <c r="C23" s="4">
         <v>113</v>
       </c>
       <c r="D23" s="4">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="E23" s="4">
-        <v>9580</v>
+        <v>9593</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1451,10 +1451,10 @@
         <v>117</v>
       </c>
       <c r="D24" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,13 +1465,13 @@
         <v>13737</v>
       </c>
       <c r="C25" s="4">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D25" s="4">
-        <v>2066</v>
+        <v>2073</v>
       </c>
       <c r="E25" s="4">
-        <v>17160</v>
+        <v>17169</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>16149</v>
+        <v>16164</v>
       </c>
       <c r="C26" s="4">
         <v>774</v>
       </c>
       <c r="D26" s="4">
-        <v>16902</v>
+        <v>16930</v>
       </c>
       <c r="E26" s="4">
-        <v>33825</v>
+        <v>33868</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>13530</v>
+        <v>13568</v>
       </c>
       <c r="C27" s="4">
         <v>250</v>
       </c>
       <c r="D27" s="4">
-        <v>2234</v>
+        <v>2245</v>
       </c>
       <c r="E27" s="4">
-        <v>16014</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>31477</v>
+        <v>31509</v>
       </c>
       <c r="C28" s="4">
         <v>1079</v>
       </c>
       <c r="D28" s="4">
-        <v>3443</v>
+        <v>3459</v>
       </c>
       <c r="E28" s="4">
-        <v>35999</v>
+        <v>36047</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>31016</v>
+        <v>31072</v>
       </c>
       <c r="C29" s="4">
         <v>1556</v>
       </c>
       <c r="D29" s="4">
-        <v>5144</v>
+        <v>5156</v>
       </c>
       <c r="E29" s="4">
-        <v>37716</v>
+        <v>37784</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12875</v>
+        <v>12883</v>
       </c>
       <c r="C30" s="4">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D30" s="4">
-        <v>4607</v>
+        <v>4612</v>
       </c>
       <c r="E30" s="4">
-        <v>17961</v>
+        <v>17977</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4927</v>
+        <v>4930</v>
       </c>
       <c r="C31" s="4">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D31" s="4">
-        <v>4989</v>
+        <v>5036</v>
       </c>
       <c r="E31" s="4">
-        <v>10137</v>
+        <v>10189</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>238679</v>
+        <v>239125</v>
       </c>
       <c r="C32" s="4">
-        <v>7647</v>
+        <v>7655</v>
       </c>
       <c r="D32" s="4">
-        <v>47628</v>
+        <v>47919</v>
       </c>
       <c r="E32" s="4">
-        <v>293954</v>
+        <v>294699</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5602</v>
+        <v>5632</v>
       </c>
       <c r="C33" s="4">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D33" s="4">
-        <v>1717</v>
+        <v>1730</v>
       </c>
       <c r="E33" s="4">
-        <v>7678</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C34" s="4">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D34" s="4">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E34" s="4">
-        <v>2794</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11506</v>
+        <v>11522</v>
       </c>
       <c r="C35" s="4">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="D35" s="4">
-        <v>3485</v>
+        <v>3491</v>
       </c>
       <c r="E35" s="4">
-        <v>18121</v>
+        <v>18144</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7530</v>
+        <v>7541</v>
       </c>
       <c r="C37" s="4">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D37" s="4">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E37" s="4">
-        <v>9389</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>22104</v>
+        <v>22113</v>
       </c>
       <c r="C38" s="4">
         <v>766</v>
       </c>
       <c r="D38" s="4">
-        <v>7331</v>
+        <v>7440</v>
       </c>
       <c r="E38" s="4">
-        <v>30201</v>
+        <v>30319</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="C39" s="4">
         <v>362</v>
       </c>
       <c r="D39" s="4">
-        <v>4235</v>
+        <v>4239</v>
       </c>
       <c r="E39" s="4">
-        <v>7392</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="C40" s="4">
         <v>424</v>
       </c>
       <c r="D40" s="4">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="E40" s="4">
-        <v>5855</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C42" s="4">
         <v>26</v>
       </c>
       <c r="D42" s="4">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="E42" s="4">
-        <v>3651</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1774,10 +1774,10 @@
         <v>88</v>
       </c>
       <c r="D43" s="4">
-        <v>2685</v>
+        <v>2692</v>
       </c>
       <c r="E43" s="4">
-        <v>5769</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>844488</v>
+        <v>846028</v>
       </c>
       <c r="C44" s="4">
-        <v>78589</v>
+        <v>78691</v>
       </c>
       <c r="D44" s="4">
-        <v>90565</v>
+        <v>91170</v>
       </c>
       <c r="E44" s="4">
-        <v>1013642</v>
+        <v>1015889</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="C45" s="4">
         <v>95</v>
@@ -1811,7 +1811,7 @@
         <v>1311</v>
       </c>
       <c r="E45" s="4">
-        <v>2422</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>11306</v>
+        <v>11318</v>
       </c>
       <c r="C46" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D46" s="4">
-        <v>3821</v>
+        <v>3829</v>
       </c>
       <c r="E46" s="4">
-        <v>15444</v>
+        <v>15465</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>91407</v>
+        <v>91628</v>
       </c>
       <c r="C47" s="4">
-        <v>7423</v>
+        <v>7455</v>
       </c>
       <c r="D47" s="4">
-        <v>18085</v>
+        <v>18176</v>
       </c>
       <c r="E47" s="4">
-        <v>116915</v>
+        <v>117259</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6280</v>
+        <v>6291</v>
       </c>
       <c r="C48" s="4">
         <v>297</v>
       </c>
       <c r="D48" s="4">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="E48" s="4">
-        <v>8779</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>22485</v>
+        <v>22507</v>
       </c>
       <c r="C50" s="4">
         <v>1317</v>
       </c>
       <c r="D50" s="4">
-        <v>4670</v>
+        <v>4691</v>
       </c>
       <c r="E50" s="4">
-        <v>28472</v>
+        <v>28515</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>81828</v>
+        <v>81971</v>
       </c>
       <c r="C51" s="4">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="D51" s="4">
-        <v>3493</v>
+        <v>3531</v>
       </c>
       <c r="E51" s="4">
-        <v>87472</v>
+        <v>87655</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1938,7 +1938,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4344</v>
+        <v>4347</v>
       </c>
       <c r="C53" s="4">
         <v>67</v>
@@ -1947,7 +1947,7 @@
         <v>1094</v>
       </c>
       <c r="E53" s="4">
-        <v>5505</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C54" s="4">
         <v>13</v>
       </c>
       <c r="D54" s="4">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="E54" s="4">
-        <v>2821</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1978,10 +1978,10 @@
         <v>23</v>
       </c>
       <c r="D55" s="4">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E55" s="4">
-        <v>3957</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1995,10 +1995,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E56" s="4">
-        <v>2273</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="C57" s="4">
         <v>310</v>
       </c>
       <c r="D57" s="4">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="E57" s="4">
-        <v>3134</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2149956</v>
+        <v>2154164</v>
       </c>
       <c r="C58" s="4">
-        <v>129129</v>
+        <v>129247</v>
       </c>
       <c r="D58" s="4">
-        <v>188467</v>
+        <v>189515</v>
       </c>
       <c r="E58" s="4">
-        <v>2467552</v>
+        <v>2472926</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7623</v>
+        <v>7625</v>
       </c>
       <c r="C59" s="4">
         <v>448</v>
       </c>
       <c r="D59" s="4">
-        <v>2119</v>
+        <v>2134</v>
       </c>
       <c r="E59" s="4">
-        <v>10190</v>
+        <v>10207</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8513</v>
+        <v>8518</v>
       </c>
       <c r="C60" s="4">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D60" s="4">
-        <v>2263</v>
+        <v>2273</v>
       </c>
       <c r="E60" s="4">
-        <v>11029</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="C61" s="4">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D61" s="4">
-        <v>2191</v>
+        <v>2196</v>
       </c>
       <c r="E61" s="4">
-        <v>7611</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="C62" s="4">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D62" s="4">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E62" s="4">
-        <v>2894</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>527495</v>
+        <v>528417</v>
       </c>
       <c r="C63" s="4">
-        <v>57876</v>
+        <v>57964</v>
       </c>
       <c r="D63" s="4">
-        <v>80985</v>
+        <v>81907</v>
       </c>
       <c r="E63" s="4">
-        <v>666356</v>
+        <v>668288</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>10719</v>
+        <v>10765</v>
       </c>
       <c r="C65" s="4">
         <v>99</v>
       </c>
       <c r="D65" s="4">
-        <v>2182</v>
+        <v>2436</v>
       </c>
       <c r="E65" s="4">
-        <v>13000</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2165,10 +2165,10 @@
         <v>388</v>
       </c>
       <c r="D66" s="4">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="E66" s="4">
-        <v>2241</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>16486</v>
+        <v>16497</v>
       </c>
       <c r="C67" s="4">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="D67" s="4">
-        <v>2059</v>
+        <v>2071</v>
       </c>
       <c r="E67" s="4">
-        <v>20877</v>
+        <v>20904</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4538</v>
+        <v>4545</v>
       </c>
       <c r="C68" s="4">
         <v>346</v>
       </c>
       <c r="D68" s="4">
-        <v>3406</v>
+        <v>3418</v>
       </c>
       <c r="E68" s="4">
-        <v>8290</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>56303</v>
+        <v>56416</v>
       </c>
       <c r="C69" s="4">
-        <v>4616</v>
+        <v>4621</v>
       </c>
       <c r="D69" s="4">
-        <v>17417</v>
+        <v>17501</v>
       </c>
       <c r="E69" s="4">
-        <v>78336</v>
+        <v>78538</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>816173</v>
+        <v>818015</v>
       </c>
       <c r="C71" s="4">
-        <v>16439</v>
+        <v>16458</v>
       </c>
       <c r="D71" s="4">
-        <v>212630</v>
+        <v>213120</v>
       </c>
       <c r="E71" s="4">
-        <v>1045242</v>
+        <v>1047593</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>154015</v>
+        <v>154245</v>
       </c>
       <c r="C72" s="4">
-        <v>6926</v>
+        <v>6936</v>
       </c>
       <c r="D72" s="4">
-        <v>13571</v>
+        <v>13637</v>
       </c>
       <c r="E72" s="4">
-        <v>174512</v>
+        <v>174818</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>17137</v>
+        <v>17156</v>
       </c>
       <c r="C73" s="4">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D73" s="4">
-        <v>6304</v>
+        <v>6315</v>
       </c>
       <c r="E73" s="4">
-        <v>24561</v>
+        <v>24592</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11858</v>
+        <v>11872</v>
       </c>
       <c r="C74" s="4">
         <v>410</v>
       </c>
       <c r="D74" s="4">
-        <v>2898</v>
+        <v>2921</v>
       </c>
       <c r="E74" s="4">
-        <v>15166</v>
+        <v>15203</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>24352</v>
+        <v>24371</v>
       </c>
       <c r="C75" s="4">
         <v>787</v>
       </c>
       <c r="D75" s="4">
-        <v>4348</v>
+        <v>4364</v>
       </c>
       <c r="E75" s="4">
-        <v>29487</v>
+        <v>29522</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>13419</v>
+        <v>13432</v>
       </c>
       <c r="C76" s="4">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D76" s="4">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="E76" s="4">
-        <v>16004</v>
+        <v>16021</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2352,10 +2352,10 @@
         <v>29</v>
       </c>
       <c r="D77" s="4">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E77" s="4">
-        <v>1621</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="C78" s="4">
         <v>113</v>
       </c>
       <c r="D78" s="4">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E78" s="4">
-        <v>2687</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>603766</v>
+        <v>604977</v>
       </c>
       <c r="C80" s="4">
-        <v>22416</v>
+        <v>22451</v>
       </c>
       <c r="D80" s="4">
-        <v>38157</v>
+        <v>38508</v>
       </c>
       <c r="E80" s="4">
-        <v>664339</v>
+        <v>665936</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4192</v>
+        <v>4217</v>
       </c>
       <c r="C81" s="4">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D81" s="4">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="E81" s="4">
-        <v>5388</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>13306</v>
+        <v>13318</v>
       </c>
       <c r="C82" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D82" s="4">
-        <v>4756</v>
+        <v>4817</v>
       </c>
       <c r="E82" s="4">
-        <v>18730</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>15906</v>
+        <v>15919</v>
       </c>
       <c r="C83" s="4">
         <v>452</v>
       </c>
       <c r="D83" s="4">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E83" s="4">
-        <v>17149</v>
+        <v>17168</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="C84" s="4">
         <v>222</v>
       </c>
       <c r="D84" s="4">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E84" s="4">
-        <v>4284</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>320168</v>
+        <v>320624</v>
       </c>
       <c r="C85" s="4">
-        <v>9729</v>
+        <v>9737</v>
       </c>
       <c r="D85" s="4">
-        <v>25508</v>
+        <v>25631</v>
       </c>
       <c r="E85" s="4">
-        <v>355405</v>
+        <v>355992</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>15060</v>
+        <v>15071</v>
       </c>
       <c r="C87" s="4">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D87" s="4">
-        <v>3345</v>
+        <v>3368</v>
       </c>
       <c r="E87" s="4">
-        <v>18806</v>
+        <v>18841</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>29</v>
       </c>
       <c r="D88" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E88" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="C89" s="4">
         <v>162</v>
       </c>
       <c r="D89" s="4">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="E89" s="4">
-        <v>4451</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>12089</v>
+        <v>12106</v>
       </c>
       <c r="C90" s="4">
         <v>324</v>
       </c>
       <c r="D90" s="4">
-        <v>3973</v>
+        <v>3977</v>
       </c>
       <c r="E90" s="4">
-        <v>16386</v>
+        <v>16407</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>7259</v>
+        <v>7271</v>
       </c>
       <c r="C91" s="4">
         <v>920</v>
       </c>
       <c r="D91" s="4">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="E91" s="4">
-        <v>10192</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>97693</v>
+        <v>97801</v>
       </c>
       <c r="C92" s="4">
-        <v>3834</v>
+        <v>3840</v>
       </c>
       <c r="D92" s="4">
-        <v>12287</v>
+        <v>12397</v>
       </c>
       <c r="E92" s="4">
-        <v>113814</v>
+        <v>114038</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>45700</v>
+        <v>45799</v>
       </c>
       <c r="C93" s="4">
-        <v>10161</v>
+        <v>10168</v>
       </c>
       <c r="D93" s="4">
-        <v>14203</v>
+        <v>14227</v>
       </c>
       <c r="E93" s="4">
-        <v>70064</v>
+        <v>70194</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>27676</v>
+        <v>27700</v>
       </c>
       <c r="C94" s="4">
         <v>504</v>
       </c>
       <c r="D94" s="4">
-        <v>2303</v>
+        <v>2321</v>
       </c>
       <c r="E94" s="4">
-        <v>30483</v>
+        <v>30525</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>72490</v>
+        <v>72645</v>
       </c>
       <c r="C95" s="4">
-        <v>3594</v>
+        <v>3611</v>
       </c>
       <c r="D95" s="4">
-        <v>14651</v>
+        <v>14718</v>
       </c>
       <c r="E95" s="4">
-        <v>90735</v>
+        <v>90974</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>13345</v>
+        <v>13356</v>
       </c>
       <c r="C96" s="4">
         <v>293</v>
       </c>
       <c r="D96" s="4">
-        <v>2122</v>
+        <v>2147</v>
       </c>
       <c r="E96" s="4">
-        <v>15760</v>
+        <v>15796</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C97" s="4">
         <v>42</v>
       </c>
       <c r="D97" s="4">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E97" s="4">
-        <v>3243</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4940</v>
+        <v>4957</v>
       </c>
       <c r="C98" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D98" s="4">
-        <v>1188</v>
+        <v>1199</v>
       </c>
       <c r="E98" s="4">
-        <v>6436</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2726,10 +2726,10 @@
         <v>612</v>
       </c>
       <c r="D99" s="4">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="E99" s="4">
-        <v>3599</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2743,10 +2743,10 @@
         <v>216</v>
       </c>
       <c r="D100" s="4">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E100" s="4">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>19360</v>
+        <v>19405</v>
       </c>
       <c r="C101" s="4">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="D101" s="4">
-        <v>6248</v>
+        <v>6328</v>
       </c>
       <c r="E101" s="4">
-        <v>28822</v>
+        <v>28951</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3702432</v>
+        <v>3708759</v>
       </c>
       <c r="C102" s="4">
-        <v>134263</v>
+        <v>134477</v>
       </c>
       <c r="D102" s="4">
-        <v>301439</v>
+        <v>303439</v>
       </c>
       <c r="E102" s="4">
-        <v>4138134</v>
+        <v>4146675</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>55803</v>
+        <v>55897</v>
       </c>
       <c r="C103" s="4">
-        <v>7604</v>
+        <v>7620</v>
       </c>
       <c r="D103" s="4">
-        <v>8193</v>
+        <v>8222</v>
       </c>
       <c r="E103" s="4">
-        <v>71600</v>
+        <v>71739</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,7 +2805,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" s="4">
         <v>53</v>
@@ -2814,7 +2814,7 @@
         <v>109</v>
       </c>
       <c r="E104" s="4">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C105" s="4">
         <v>35</v>
       </c>
       <c r="D105" s="4">
-        <v>1366</v>
+        <v>1376</v>
       </c>
       <c r="E105" s="4">
-        <v>2602</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>218538</v>
+        <v>218977</v>
       </c>
       <c r="C106" s="4">
-        <v>10317</v>
+        <v>10319</v>
       </c>
       <c r="D106" s="4">
-        <v>15240</v>
+        <v>15324</v>
       </c>
       <c r="E106" s="4">
-        <v>244095</v>
+        <v>244620</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,13 +2859,13 @@
         <v>938</v>
       </c>
       <c r="C107" s="4">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D107" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E107" s="4">
-        <v>1441</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>25252</v>
+        <v>25278</v>
       </c>
       <c r="C108" s="4">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="D108" s="4">
-        <v>7776</v>
+        <v>7794</v>
       </c>
       <c r="E108" s="4">
-        <v>35177</v>
+        <v>35223</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>417760</v>
+        <v>418325</v>
       </c>
       <c r="C109" s="4">
-        <v>14884</v>
+        <v>14901</v>
       </c>
       <c r="D109" s="4">
-        <v>122191</v>
+        <v>122530</v>
       </c>
       <c r="E109" s="4">
-        <v>554835</v>
+        <v>555756</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>31153</v>
+        <v>31257</v>
       </c>
       <c r="C110" s="4">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D110" s="4">
-        <v>5698</v>
+        <v>5716</v>
       </c>
       <c r="E110" s="4">
-        <v>37823</v>
+        <v>37946</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7569</v>
+        <v>7572</v>
       </c>
       <c r="C111" s="4">
         <v>82</v>
       </c>
       <c r="D111" s="4">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="E111" s="4">
-        <v>10692</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>33024</v>
+        <v>33079</v>
       </c>
       <c r="C112" s="4">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="D112" s="4">
-        <v>17938</v>
+        <v>17968</v>
       </c>
       <c r="E112" s="4">
-        <v>53315</v>
+        <v>53401</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>16099</v>
+        <v>16105</v>
       </c>
       <c r="C113" s="4">
         <v>1854</v>
       </c>
       <c r="D113" s="4">
-        <v>3027</v>
+        <v>3075</v>
       </c>
       <c r="E113" s="4">
-        <v>20980</v>
+        <v>21034</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>14447</v>
+        <v>14452</v>
       </c>
       <c r="C114" s="4">
         <v>352</v>
       </c>
       <c r="D114" s="4">
-        <v>2967</v>
+        <v>2980</v>
       </c>
       <c r="E114" s="4">
-        <v>17766</v>
+        <v>17784</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>15801</v>
+        <v>15848</v>
       </c>
       <c r="C115" s="4">
         <v>480</v>
       </c>
       <c r="D115" s="4">
-        <v>4054</v>
+        <v>4065</v>
       </c>
       <c r="E115" s="4">
-        <v>20335</v>
+        <v>20393</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2404</v>
+        <v>2411</v>
       </c>
       <c r="C116" s="4">
         <v>31</v>
@@ -3018,7 +3018,7 @@
         <v>973</v>
       </c>
       <c r="E116" s="4">
-        <v>3408</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>71905</v>
+        <v>72050</v>
       </c>
       <c r="C117" s="4">
-        <v>3623</v>
+        <v>3628</v>
       </c>
       <c r="D117" s="4">
-        <v>9431</v>
+        <v>9472</v>
       </c>
       <c r="E117" s="4">
-        <v>84959</v>
+        <v>85150</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8192</v>
+        <v>8193</v>
       </c>
       <c r="C118" s="4">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D118" s="4">
-        <v>3527</v>
+        <v>3531</v>
       </c>
       <c r="E118" s="4">
-        <v>12983</v>
+        <v>12989</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,7 +3060,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C119" s="4">
         <v>11</v>
@@ -3069,7 +3069,7 @@
         <v>278</v>
       </c>
       <c r="E119" s="4">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C120" s="4">
         <v>180</v>
       </c>
       <c r="D120" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E120" s="4">
-        <v>2249</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6683</v>
+        <v>6686</v>
       </c>
       <c r="C121" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D121" s="4">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E121" s="4">
-        <v>8506</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>12956</v>
+        <v>12974</v>
       </c>
       <c r="C122" s="4">
         <v>2548</v>
       </c>
       <c r="D122" s="4">
-        <v>3531</v>
+        <v>3542</v>
       </c>
       <c r="E122" s="4">
-        <v>19035</v>
+        <v>19064</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1753</v>
+        <v>1766</v>
       </c>
       <c r="C123" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D123" s="4">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E123" s="4">
-        <v>2045</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>151828</v>
+        <v>151904</v>
       </c>
       <c r="C124" s="4">
-        <v>12160</v>
+        <v>12166</v>
       </c>
       <c r="D124" s="4">
-        <v>32664</v>
+        <v>32772</v>
       </c>
       <c r="E124" s="4">
-        <v>196652</v>
+        <v>196842</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>13090</v>
+        <v>13113</v>
       </c>
       <c r="C125" s="4">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D125" s="4">
-        <v>3268</v>
+        <v>3275</v>
       </c>
       <c r="E125" s="4">
-        <v>16880</v>
+        <v>16913</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>45047</v>
+        <v>45107</v>
       </c>
       <c r="C126" s="4">
-        <v>7535</v>
+        <v>7545</v>
       </c>
       <c r="D126" s="4">
-        <v>14114</v>
+        <v>14153</v>
       </c>
       <c r="E126" s="4">
-        <v>66696</v>
+        <v>66805</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>109465</v>
+        <v>109733</v>
       </c>
       <c r="C127" s="4">
-        <v>6443</v>
+        <v>6480</v>
       </c>
       <c r="D127" s="4">
-        <v>15090</v>
+        <v>15147</v>
       </c>
       <c r="E127" s="4">
-        <v>130998</v>
+        <v>131360</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3219,10 +3219,10 @@
         <v>194</v>
       </c>
       <c r="D128" s="4">
-        <v>2818</v>
+        <v>2846</v>
       </c>
       <c r="E128" s="4">
-        <v>8687</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12895</v>
+        <v>13149</v>
       </c>
       <c r="C129" s="4">
         <v>422</v>
       </c>
       <c r="D129" s="4">
-        <v>4492</v>
+        <v>4608</v>
       </c>
       <c r="E129" s="4">
-        <v>17809</v>
+        <v>18179</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>96361</v>
+        <v>96537</v>
       </c>
       <c r="C130" s="4">
-        <v>5065</v>
+        <v>5070</v>
       </c>
       <c r="D130" s="4">
-        <v>16052</v>
+        <v>16127</v>
       </c>
       <c r="E130" s="4">
-        <v>117478</v>
+        <v>117734</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>21450</v>
+        <v>21512</v>
       </c>
       <c r="C131" s="4">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="D131" s="4">
-        <v>7926</v>
+        <v>7948</v>
       </c>
       <c r="E131" s="4">
-        <v>30804</v>
+        <v>30896</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E133" s="4">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>29384</v>
+        <v>29455</v>
       </c>
       <c r="C134" s="4">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D134" s="4">
-        <v>18234</v>
+        <v>18305</v>
       </c>
       <c r="E134" s="4">
-        <v>48449</v>
+        <v>48592</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C135" s="4">
         <v>39</v>
@@ -3341,7 +3341,7 @@
         <v>337</v>
       </c>
       <c r="E135" s="4">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>25180</v>
+        <v>25197</v>
       </c>
       <c r="C138" s="4">
-        <v>4273</v>
+        <v>4280</v>
       </c>
       <c r="D138" s="4">
-        <v>6246</v>
+        <v>6336</v>
       </c>
       <c r="E138" s="4">
-        <v>35699</v>
+        <v>35813</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>41</v>
       </c>
       <c r="D139" s="4">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="E139" s="4">
-        <v>3117</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6894</v>
+        <v>6897</v>
       </c>
       <c r="C140" s="4">
         <v>284</v>
       </c>
       <c r="D140" s="4">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E140" s="4">
-        <v>7481</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>21150</v>
+        <v>21201</v>
       </c>
       <c r="C141" s="4">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="D141" s="4">
-        <v>3747</v>
+        <v>3757</v>
       </c>
       <c r="E141" s="4">
-        <v>27110</v>
+        <v>27173</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5364</v>
+        <v>5378</v>
       </c>
       <c r="C142" s="4">
         <v>89</v>
       </c>
       <c r="D142" s="4">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E142" s="4">
-        <v>9889</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>15598</v>
+        <v>15617</v>
       </c>
       <c r="C143" s="4">
         <v>615</v>
       </c>
       <c r="D143" s="4">
-        <v>3327</v>
+        <v>3341</v>
       </c>
       <c r="E143" s="4">
-        <v>19540</v>
+        <v>19573</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10975</v>
+        <v>11002</v>
       </c>
       <c r="C144" s="4">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D144" s="4">
-        <v>2698</v>
+        <v>2703</v>
       </c>
       <c r="E144" s="4">
-        <v>14204</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7551</v>
+        <v>7559</v>
       </c>
       <c r="C145" s="4">
         <v>216</v>
       </c>
       <c r="D145" s="4">
-        <v>2701</v>
+        <v>2727</v>
       </c>
       <c r="E145" s="4">
-        <v>10468</v>
+        <v>10502</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8949</v>
+        <v>8959</v>
       </c>
       <c r="C146" s="4">
         <v>488</v>
       </c>
       <c r="D146" s="4">
-        <v>1745</v>
+        <v>1760</v>
       </c>
       <c r="E146" s="4">
-        <v>11182</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>49079</v>
+        <v>49128</v>
       </c>
       <c r="C147" s="4">
         <v>2965</v>
       </c>
       <c r="D147" s="4">
-        <v>5554</v>
+        <v>5591</v>
       </c>
       <c r="E147" s="4">
-        <v>57598</v>
+        <v>57684</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>28406</v>
+        <v>28432</v>
       </c>
       <c r="C148" s="4">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D148" s="4">
-        <v>6896</v>
+        <v>7005</v>
       </c>
       <c r="E148" s="4">
-        <v>35883</v>
+        <v>36019</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C149" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D149" s="4">
         <v>96</v>
       </c>
       <c r="E149" s="4">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4960</v>
+        <v>4992</v>
       </c>
       <c r="C150" s="4">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D150" s="4">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="E150" s="4">
-        <v>6586</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>9871</v>
+        <v>9892</v>
       </c>
       <c r="C151" s="4">
         <v>324</v>
       </c>
       <c r="D151" s="4">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="E151" s="4">
-        <v>11630</v>
+        <v>11655</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>189396</v>
+        <v>189551</v>
       </c>
       <c r="C153" s="4">
         <v>6418</v>
       </c>
       <c r="D153" s="4">
-        <v>88439</v>
+        <v>88535</v>
       </c>
       <c r="E153" s="4">
-        <v>284253</v>
+        <v>284504</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="C154" s="4">
         <v>96</v>
@@ -3664,7 +3664,7 @@
         <v>1833</v>
       </c>
       <c r="E154" s="4">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11780</v>
+        <v>11788</v>
       </c>
       <c r="C155" s="4">
         <v>168</v>
       </c>
       <c r="D155" s="4">
-        <v>1920</v>
+        <v>1966</v>
       </c>
       <c r="E155" s="4">
-        <v>13868</v>
+        <v>13922</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="C156" s="4">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D156" s="4">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E156" s="4">
-        <v>4560</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C157" s="4">
         <v>129</v>
       </c>
       <c r="D157" s="4">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E157" s="4">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,7 +3723,7 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C158" s="4">
         <v>58</v>
@@ -3732,7 +3732,7 @@
         <v>344</v>
       </c>
       <c r="E158" s="4">
-        <v>2279</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>29842</v>
+        <v>29914</v>
       </c>
       <c r="C159" s="4">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D159" s="4">
-        <v>2188</v>
+        <v>2194</v>
       </c>
       <c r="E159" s="4">
-        <v>32730</v>
+        <v>32809</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>54174</v>
+        <v>54859</v>
       </c>
       <c r="C160" s="4">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D160" s="4">
-        <v>6594</v>
+        <v>6608</v>
       </c>
       <c r="E160" s="4">
-        <v>61132</v>
+        <v>61839</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="C161" s="4">
         <v>41</v>
       </c>
       <c r="D161" s="4">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E161" s="4">
-        <v>3487</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>214815</v>
+        <v>215346</v>
       </c>
       <c r="C162" s="4">
-        <v>9600</v>
+        <v>9601</v>
       </c>
       <c r="D162" s="4">
-        <v>47355</v>
+        <v>47520</v>
       </c>
       <c r="E162" s="4">
-        <v>271770</v>
+        <v>272467</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C163" s="4">
         <v>47</v>
@@ -3817,7 +3817,7 @@
         <v>57</v>
       </c>
       <c r="E163" s="4">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>26468</v>
+        <v>26501</v>
       </c>
       <c r="C164" s="4">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="D164" s="4">
-        <v>4684</v>
+        <v>4694</v>
       </c>
       <c r="E164" s="4">
-        <v>32329</v>
+        <v>32377</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3848,10 +3848,10 @@
         <v>21</v>
       </c>
       <c r="D165" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E165" s="4">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>43237</v>
+        <v>43273</v>
       </c>
       <c r="C166" s="4">
-        <v>5668</v>
+        <v>5677</v>
       </c>
       <c r="D166" s="4">
-        <v>35887</v>
+        <v>35955</v>
       </c>
       <c r="E166" s="4">
-        <v>84792</v>
+        <v>84905</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>15269</v>
+        <v>15313</v>
       </c>
       <c r="C167" s="4">
         <v>863</v>
       </c>
       <c r="D167" s="4">
-        <v>5726</v>
+        <v>5733</v>
       </c>
       <c r="E167" s="4">
-        <v>21858</v>
+        <v>21909</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="C169" s="4">
         <v>51</v>
       </c>
       <c r="D169" s="4">
-        <v>2378</v>
+        <v>2383</v>
       </c>
       <c r="E169" s="4">
-        <v>7048</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9922</v>
+        <v>9936</v>
       </c>
       <c r="C170" s="4">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D170" s="4">
-        <v>2522</v>
+        <v>2531</v>
       </c>
       <c r="E170" s="4">
-        <v>13286</v>
+        <v>13312</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>335681</v>
+        <v>336306</v>
       </c>
       <c r="C171" s="4">
-        <v>16463</v>
+        <v>16482</v>
       </c>
       <c r="D171" s="4">
-        <v>39776</v>
+        <v>40014</v>
       </c>
       <c r="E171" s="4">
-        <v>391920</v>
+        <v>392802</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7237</v>
+        <v>7240</v>
       </c>
       <c r="C172" s="4">
         <v>832</v>
       </c>
       <c r="D172" s="4">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="E172" s="4">
-        <v>9705</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5300</v>
+        <v>5333</v>
       </c>
       <c r="C173" s="4">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D173" s="4">
-        <v>3876</v>
+        <v>3884</v>
       </c>
       <c r="E173" s="4">
-        <v>9851</v>
+        <v>9895</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>38967</v>
+        <v>39012</v>
       </c>
       <c r="C175" s="4">
         <v>1152</v>
       </c>
       <c r="D175" s="4">
-        <v>6412</v>
+        <v>6432</v>
       </c>
       <c r="E175" s="4">
-        <v>46531</v>
+        <v>46596</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>24445</v>
+        <v>24470</v>
       </c>
       <c r="C176" s="4">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D176" s="4">
-        <v>8049</v>
+        <v>8082</v>
       </c>
       <c r="E176" s="4">
-        <v>34051</v>
+        <v>34110</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3353</v>
+        <v>3357</v>
       </c>
       <c r="C177" s="4">
         <v>759</v>
       </c>
       <c r="D177" s="4">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="E177" s="4">
-        <v>6043</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>7991</v>
+        <v>8513</v>
       </c>
       <c r="C178" s="4">
         <v>144</v>
       </c>
       <c r="D178" s="4">
-        <v>2878</v>
+        <v>2884</v>
       </c>
       <c r="E178" s="4">
-        <v>11013</v>
+        <v>11541</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>201326</v>
+        <v>201618</v>
       </c>
       <c r="C179" s="4">
-        <v>40076</v>
+        <v>40131</v>
       </c>
       <c r="D179" s="4">
-        <v>47812</v>
+        <v>48100</v>
       </c>
       <c r="E179" s="4">
-        <v>289214</v>
+        <v>289849</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C180" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D180" s="4">
         <v>272</v>
       </c>
       <c r="E180" s="4">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4120,10 +4120,10 @@
         <v>262</v>
       </c>
       <c r="D181" s="4">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E181" s="4">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>26960</v>
+        <v>26981</v>
       </c>
       <c r="C182" s="4">
-        <v>5358</v>
+        <v>5361</v>
       </c>
       <c r="D182" s="4">
-        <v>9837</v>
+        <v>9927</v>
       </c>
       <c r="E182" s="4">
-        <v>42155</v>
+        <v>42269</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12693</v>
+        <v>12707</v>
       </c>
       <c r="C183" s="4">
         <v>913</v>
       </c>
       <c r="D183" s="4">
-        <v>4759</v>
+        <v>4776</v>
       </c>
       <c r="E183" s="4">
-        <v>18365</v>
+        <v>18396</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8516</v>
+        <v>8544</v>
       </c>
       <c r="C184" s="4">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D184" s="4">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="E184" s="4">
-        <v>12631</v>
+        <v>12664</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>64716</v>
+        <v>64836</v>
       </c>
       <c r="C185" s="4">
-        <v>5804</v>
+        <v>5808</v>
       </c>
       <c r="D185" s="4">
-        <v>16504</v>
+        <v>16552</v>
       </c>
       <c r="E185" s="4">
-        <v>87024</v>
+        <v>87196</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4205,10 +4205,10 @@
         <v>232</v>
       </c>
       <c r="D186" s="4">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E186" s="4">
-        <v>3248</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9660</v>
+        <v>9661</v>
       </c>
       <c r="C187" s="4">
         <v>99</v>
       </c>
       <c r="D187" s="4">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E187" s="4">
-        <v>10737</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>33000</v>
+        <v>33049</v>
       </c>
       <c r="C188" s="4">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D188" s="4">
-        <v>5503</v>
+        <v>5530</v>
       </c>
       <c r="E188" s="4">
-        <v>39667</v>
+        <v>39744</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>69236</v>
+        <v>69244</v>
       </c>
       <c r="C189" s="4">
         <v>6951</v>
       </c>
       <c r="D189" s="4">
-        <v>11125</v>
+        <v>11172</v>
       </c>
       <c r="E189" s="4">
-        <v>87312</v>
+        <v>87367</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7305</v>
+        <v>7306</v>
       </c>
       <c r="C190" s="4">
         <v>37</v>
       </c>
       <c r="D190" s="4">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="E190" s="4">
-        <v>8611</v>
+        <v>8618</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2665</v>
+        <v>2673</v>
       </c>
       <c r="C191" s="4">
         <v>384</v>
       </c>
       <c r="D191" s="4">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E191" s="4">
-        <v>3708</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>44680</v>
+        <v>44701</v>
       </c>
       <c r="C192" s="4">
-        <v>14115</v>
+        <v>14123</v>
       </c>
       <c r="D192" s="4">
-        <v>10823</v>
+        <v>10897</v>
       </c>
       <c r="E192" s="4">
-        <v>69618</v>
+        <v>69721</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4341,10 +4341,10 @@
         <v>67</v>
       </c>
       <c r="D194" s="4">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E194" s="4">
-        <v>2352</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5661</v>
+        <v>5681</v>
       </c>
       <c r="C195" s="4">
         <v>520</v>
       </c>
       <c r="D195" s="4">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="E195" s="4">
-        <v>7892</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>6380</v>
+        <v>6388</v>
       </c>
       <c r="C196" s="4">
         <v>157</v>
       </c>
       <c r="D196" s="4">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="E196" s="4">
-        <v>7369</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,13 +4389,13 @@
         <v>3801</v>
       </c>
       <c r="C197" s="4">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D197" s="4">
-        <v>3080</v>
+        <v>3086</v>
       </c>
       <c r="E197" s="4">
-        <v>7257</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10902</v>
+        <v>10910</v>
       </c>
       <c r="C199" s="4">
         <v>274</v>
       </c>
       <c r="D199" s="4">
-        <v>6372</v>
+        <v>6378</v>
       </c>
       <c r="E199" s="4">
-        <v>17548</v>
+        <v>17562</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>68651</v>
+        <v>68790</v>
       </c>
       <c r="C200" s="4">
-        <v>5065</v>
+        <v>5076</v>
       </c>
       <c r="D200" s="4">
-        <v>4935</v>
+        <v>4961</v>
       </c>
       <c r="E200" s="4">
-        <v>78651</v>
+        <v>78827</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5550</v>
+        <v>5554</v>
       </c>
       <c r="C201" s="4">
         <v>146</v>
       </c>
       <c r="D201" s="4">
-        <v>2681</v>
+        <v>2686</v>
       </c>
       <c r="E201" s="4">
-        <v>8377</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>17267</v>
+        <v>17277</v>
       </c>
       <c r="C202" s="4">
         <v>1964</v>
       </c>
       <c r="D202" s="4">
-        <v>2321</v>
+        <v>2337</v>
       </c>
       <c r="E202" s="4">
-        <v>21552</v>
+        <v>21578</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5734</v>
+        <v>5740</v>
       </c>
       <c r="C203" s="4">
         <v>378</v>
       </c>
       <c r="D203" s="4">
-        <v>1972</v>
+        <v>1978</v>
       </c>
       <c r="E203" s="4">
-        <v>8084</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5343</v>
+        <v>5346</v>
       </c>
       <c r="C204" s="4">
         <v>72</v>
       </c>
       <c r="D204" s="4">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="E204" s="4">
-        <v>7874</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>15719</v>
+        <v>15747</v>
       </c>
       <c r="C205" s="4">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="D205" s="4">
-        <v>2980</v>
+        <v>3005</v>
       </c>
       <c r="E205" s="4">
-        <v>20127</v>
+        <v>20183</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>27758</v>
+        <v>27814</v>
       </c>
       <c r="C206" s="4">
-        <v>7382</v>
+        <v>7387</v>
       </c>
       <c r="D206" s="4">
-        <v>14998</v>
+        <v>15129</v>
       </c>
       <c r="E206" s="4">
-        <v>50138</v>
+        <v>50330</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C207" s="4">
         <v>80</v>
       </c>
       <c r="D207" s="4">
-        <v>1981</v>
+        <v>1987</v>
       </c>
       <c r="E207" s="4">
-        <v>4691</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15912</v>
+        <v>15914</v>
       </c>
       <c r="C209" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D209" s="4">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="E209" s="4">
-        <v>16786</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C210" s="4">
         <v>69</v>
       </c>
       <c r="D210" s="4">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E210" s="4">
-        <v>1230</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>11061</v>
+        <v>11085</v>
       </c>
       <c r="C211" s="4">
         <v>446</v>
       </c>
       <c r="D211" s="4">
-        <v>3038</v>
+        <v>3044</v>
       </c>
       <c r="E211" s="4">
-        <v>14545</v>
+        <v>14575</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4647,10 +4647,10 @@
         <v>122</v>
       </c>
       <c r="D212" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E212" s="4">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>165069</v>
+        <v>165172</v>
       </c>
       <c r="C213" s="4">
-        <v>9063</v>
+        <v>9069</v>
       </c>
       <c r="D213" s="4">
-        <v>20813</v>
+        <v>20886</v>
       </c>
       <c r="E213" s="4">
-        <v>194945</v>
+        <v>195127</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3926</v>
+        <v>3931</v>
       </c>
       <c r="C214" s="4">
         <v>372</v>
       </c>
       <c r="D214" s="4">
-        <v>3941</v>
+        <v>3951</v>
       </c>
       <c r="E214" s="4">
-        <v>8239</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>47311</v>
+        <v>47378</v>
       </c>
       <c r="C215" s="4">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D215" s="4">
-        <v>9904</v>
+        <v>9920</v>
       </c>
       <c r="E215" s="4">
-        <v>57777</v>
+        <v>57862</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="C216" s="4">
         <v>130</v>
       </c>
       <c r="D216" s="4">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="E216" s="4">
-        <v>4628</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,7 +4726,7 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
@@ -4735,7 +4735,7 @@
         <v>464</v>
       </c>
       <c r="E217" s="4">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E218" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="C220" s="4">
         <v>284</v>
       </c>
       <c r="D220" s="4">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E220" s="4">
-        <v>4646</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1503436</v>
+        <v>1506519</v>
       </c>
       <c r="C221" s="4">
-        <v>87743</v>
+        <v>87819</v>
       </c>
       <c r="D221" s="4">
-        <v>175850</v>
+        <v>176806</v>
       </c>
       <c r="E221" s="4">
-        <v>1767029</v>
+        <v>1771144</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>80091</v>
+        <v>80168</v>
       </c>
       <c r="C222" s="4">
-        <v>3238</v>
+        <v>3244</v>
       </c>
       <c r="D222" s="4">
-        <v>44723</v>
+        <v>45340</v>
       </c>
       <c r="E222" s="4">
-        <v>128052</v>
+        <v>128752</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="C224" s="4">
         <v>108</v>
       </c>
       <c r="D224" s="4">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="E224" s="4">
-        <v>4403</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>27</v>
       </c>
       <c r="D225" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E225" s="4">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>21390</v>
+        <v>21507</v>
       </c>
       <c r="C226" s="4">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="D226" s="4">
-        <v>3444</v>
+        <v>3465</v>
       </c>
       <c r="E226" s="4">
-        <v>25935</v>
+        <v>26088</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>70566</v>
+        <v>70692</v>
       </c>
       <c r="C227" s="4">
         <v>1551</v>
       </c>
       <c r="D227" s="4">
-        <v>38803</v>
+        <v>38844</v>
       </c>
       <c r="E227" s="4">
-        <v>110920</v>
+        <v>111087</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>923740</v>
+        <v>925761</v>
       </c>
       <c r="C228" s="4">
-        <v>39035</v>
+        <v>39052</v>
       </c>
       <c r="D228" s="4">
-        <v>128194</v>
+        <v>128863</v>
       </c>
       <c r="E228" s="4">
-        <v>1090969</v>
+        <v>1093676</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>10190</v>
+        <v>10200</v>
       </c>
       <c r="C229" s="4">
         <v>234</v>
       </c>
       <c r="D229" s="4">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="E229" s="4">
-        <v>13011</v>
+        <v>13025</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8507</v>
+        <v>8510</v>
       </c>
       <c r="C230" s="4">
         <v>860</v>
       </c>
       <c r="D230" s="4">
-        <v>4175</v>
+        <v>4184</v>
       </c>
       <c r="E230" s="4">
-        <v>13542</v>
+        <v>13554</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>10147</v>
+        <v>10156</v>
       </c>
       <c r="C231" s="4">
         <v>1994</v>
       </c>
       <c r="D231" s="4">
-        <v>3256</v>
+        <v>3262</v>
       </c>
       <c r="E231" s="4">
-        <v>15397</v>
+        <v>15412</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,7 +4981,7 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C232" s="4">
         <v>71</v>
@@ -4990,7 +4990,7 @@
         <v>1985</v>
       </c>
       <c r="E232" s="4">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>23110</v>
+        <v>23130</v>
       </c>
       <c r="C233" s="4">
         <v>391</v>
       </c>
       <c r="D233" s="4">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="E233" s="4">
-        <v>24964</v>
+        <v>24989</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>40569</v>
+        <v>40610</v>
       </c>
       <c r="C234" s="4">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D234" s="4">
-        <v>9679</v>
+        <v>9707</v>
       </c>
       <c r="E234" s="4">
-        <v>51433</v>
+        <v>51503</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>17540</v>
+        <v>17573</v>
       </c>
       <c r="C235" s="4">
         <v>1767</v>
       </c>
       <c r="D235" s="4">
-        <v>6101</v>
+        <v>6127</v>
       </c>
       <c r="E235" s="4">
-        <v>25408</v>
+        <v>25467</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>37173</v>
+        <v>37219</v>
       </c>
       <c r="C236" s="4">
-        <v>1789</v>
+        <v>1823</v>
       </c>
       <c r="D236" s="4">
-        <v>13571</v>
+        <v>13600</v>
       </c>
       <c r="E236" s="4">
-        <v>52533</v>
+        <v>52642</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>94014</v>
+        <v>94116</v>
       </c>
       <c r="C237" s="4">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D237" s="4">
-        <v>9881</v>
+        <v>9955</v>
       </c>
       <c r="E237" s="4">
-        <v>105080</v>
+        <v>105257</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>30368</v>
+        <v>30389</v>
       </c>
       <c r="C238" s="4">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D238" s="4">
-        <v>3036</v>
+        <v>3050</v>
       </c>
       <c r="E238" s="4">
-        <v>34192</v>
+        <v>34228</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4267</v>
+        <v>4271</v>
       </c>
       <c r="C239" s="4">
         <v>143</v>
       </c>
       <c r="D239" s="4">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E239" s="4">
-        <v>4811</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>34511</v>
+        <v>34552</v>
       </c>
       <c r="C240" s="4">
         <v>557</v>
       </c>
       <c r="D240" s="4">
-        <v>6335</v>
+        <v>6349</v>
       </c>
       <c r="E240" s="4">
-        <v>41403</v>
+        <v>41458</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>334448</v>
+        <v>335181</v>
       </c>
       <c r="C241" s="4">
-        <v>4387</v>
+        <v>4390</v>
       </c>
       <c r="D241" s="4">
-        <v>46554</v>
+        <v>46796</v>
       </c>
       <c r="E241" s="4">
-        <v>385389</v>
+        <v>386367</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>29363</v>
+        <v>29434</v>
       </c>
       <c r="C242" s="4">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D242" s="4">
-        <v>2910</v>
+        <v>2929</v>
       </c>
       <c r="E242" s="4">
-        <v>33081</v>
+        <v>33173</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>100489</v>
+        <v>100530</v>
       </c>
       <c r="C244" s="4">
-        <v>6029</v>
+        <v>6035</v>
       </c>
       <c r="D244" s="4">
-        <v>20348</v>
+        <v>20388</v>
       </c>
       <c r="E244" s="4">
-        <v>126866</v>
+        <v>126953</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>11442</v>
+        <v>11457</v>
       </c>
       <c r="C245" s="4">
         <v>550</v>
       </c>
       <c r="D245" s="4">
-        <v>3999</v>
+        <v>4004</v>
       </c>
       <c r="E245" s="4">
-        <v>15991</v>
+        <v>16011</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>22340</v>
+        <v>22397</v>
       </c>
       <c r="C246" s="4">
         <v>175</v>
       </c>
       <c r="D246" s="4">
-        <v>1680</v>
+        <v>1694</v>
       </c>
       <c r="E246" s="4">
-        <v>24195</v>
+        <v>24266</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>390741</v>
+        <v>391560</v>
       </c>
       <c r="C247" s="4">
-        <v>14202</v>
+        <v>14214</v>
       </c>
       <c r="D247" s="4">
-        <v>56925</v>
+        <v>57310</v>
       </c>
       <c r="E247" s="4">
-        <v>461868</v>
+        <v>463084</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>30015</v>
+        <v>30041</v>
       </c>
       <c r="C248" s="4">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="D248" s="4">
-        <v>6544</v>
+        <v>6561</v>
       </c>
       <c r="E248" s="4">
-        <v>37559</v>
+        <v>37620</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5276,10 +5276,10 @@
         <v>42</v>
       </c>
       <c r="D249" s="4">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E249" s="4">
-        <v>1203</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>43426</v>
+        <v>43482</v>
       </c>
       <c r="C250" s="4">
-        <v>3079</v>
+        <v>3084</v>
       </c>
       <c r="D250" s="4">
-        <v>5342</v>
+        <v>5361</v>
       </c>
       <c r="E250" s="4">
-        <v>51847</v>
+        <v>51927</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>15584</v>
+        <v>15611</v>
       </c>
       <c r="C251" s="4">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="D251" s="4">
-        <v>3555</v>
+        <v>3570</v>
       </c>
       <c r="E251" s="4">
-        <v>20906</v>
+        <v>20953</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,7 +5321,7 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2167</v>
+        <v>2173</v>
       </c>
       <c r="C252" s="4">
         <v>104</v>
@@ -5330,7 +5330,7 @@
         <v>492</v>
       </c>
       <c r="E252" s="4">
-        <v>2763</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6563</v>
+        <v>6569</v>
       </c>
       <c r="C253" s="4">
         <v>540</v>
       </c>
       <c r="D253" s="4">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="E253" s="4">
-        <v>8774</v>
+        <v>8783</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15591</v>
+        <v>15631</v>
       </c>
       <c r="C254" s="4">
         <v>124</v>
       </c>
       <c r="D254" s="4">
-        <v>4217</v>
+        <v>4226</v>
       </c>
       <c r="E254" s="4">
-        <v>19932</v>
+        <v>19981</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>9106</v>
+        <v>9123</v>
       </c>
       <c r="C255" s="4">
         <v>232</v>
       </c>
       <c r="D255" s="4">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="E255" s="4">
-        <v>10018</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>135312</v>
+        <v>135543</v>
       </c>
       <c r="C256" s="4">
         <v>11027</v>
       </c>
       <c r="D256" s="4">
-        <v>5414</v>
+        <v>5421</v>
       </c>
       <c r="E256" s="4">
-        <v>151753</v>
+        <v>151991</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>20793857</v>
+        <v>20833344</v>
       </c>
       <c r="C257" s="4">
-        <v>1070672</v>
+        <v>1072249</v>
       </c>
       <c r="D257" s="4">
-        <v>3027350</v>
+        <v>3042770</v>
       </c>
       <c r="E257" s="4">
-        <v>24891879</v>
+        <v>24948363</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
